--- a/data/trans_dic/Viv_Temp_insuf-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Dificultad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.5842862687428666</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.5826701044212885</v>
+        <v>0.5826701044212886</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5327710965353387</v>
+        <v>0.526660200555029</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5488679133201918</v>
+        <v>0.5489062998362078</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.552247225397436</v>
+        <v>0.5506820514991927</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6283098144369118</v>
+        <v>0.6297547370307497</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6225798932309339</v>
+        <v>0.6188361892255027</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6107880688242686</v>
+        <v>0.6116745817483106</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4317428763774426</v>
+        <v>0.4281034642486573</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4473028251725464</v>
+        <v>0.4496678057813879</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4492968856556812</v>
+        <v>0.4476852996567365</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.501566283854965</v>
+        <v>0.5022394033571373</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4990428051851565</v>
+        <v>0.5000346676497284</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4934926895170202</v>
+        <v>0.4904558779411392</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.3754492452136715</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3735911887814397</v>
+        <v>0.3735911887814398</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3406302363960468</v>
+        <v>0.3405125809197497</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3461307296146678</v>
+        <v>0.3505592543418605</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3526837780126513</v>
+        <v>0.3534938725800367</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4049127491081767</v>
+        <v>0.4038484842517027</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4030573210132726</v>
+        <v>0.4025792181068631</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3955108813791651</v>
+        <v>0.3950543136285853</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.2345986705752201</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2599574068884921</v>
+        <v>0.259957406888492</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.246847373670667</v>
+        <v>0.2468473736706669</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2062905144167309</v>
+        <v>0.2065522123386406</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2332899061194538</v>
+        <v>0.2336386624482679</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2247551129599696</v>
+        <v>0.2275835282067095</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2682627215709694</v>
+        <v>0.265025002604147</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2881764958039849</v>
+        <v>0.2892343063653366</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2658090104281224</v>
+        <v>0.2674809945330289</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.389515350810226</v>
+        <v>0.3895153508102259</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.41171085417644</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.372403995307279</v>
+        <v>0.3720556035609652</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3982943388050281</v>
+        <v>0.3972095015892972</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3893891170515638</v>
+        <v>0.3894596499114512</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4067298911185759</v>
+        <v>0.4077026035220205</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4261610686957603</v>
+        <v>0.4262616585747633</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4126194851965977</v>
+        <v>0.4131618905576421</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>265714</v>
+        <v>262666</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>341874</v>
+        <v>341898</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>619407</v>
+        <v>617652</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>313363</v>
+        <v>314083</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>387788</v>
+        <v>385456</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>685067</v>
+        <v>686062</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>413823</v>
+        <v>410335</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>499122</v>
+        <v>501761</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>931996</v>
+        <v>928653</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>480748</v>
+        <v>481393</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>556856</v>
+        <v>557963</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1023673</v>
+        <v>1017374</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>356213</v>
+        <v>356090</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>362286</v>
+        <v>366921</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>737963</v>
+        <v>739658</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>423437</v>
+        <v>422324</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>421869</v>
+        <v>421369</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>827575</v>
+        <v>826620</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>201001</v>
+        <v>201256</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>212374</v>
+        <v>212692</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>423597</v>
+        <v>428928</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>261385</v>
+        <v>258230</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>262340</v>
+        <v>263303</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>500972</v>
+        <v>504123</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1294976</v>
+        <v>1293765</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1471992</v>
+        <v>1467983</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2793120</v>
+        <v>2793626</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1414339</v>
+        <v>1417721</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1574981</v>
+        <v>1575352</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2959753</v>
+        <v>2963644</v>
       </c>
     </row>
     <row r="24">
